--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_summer.xlsx
@@ -425,9 +425,6 @@
       <c r="D2">
         <v>2009</v>
       </c>
-      <c r="E2">
-        <v>4.090030569194725</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
@@ -436,14 +433,8 @@
       <c r="B3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>-4.715480642250625</v>
-      </c>
       <c r="D3">
         <v>2010</v>
-      </c>
-      <c r="E3">
-        <v>0.1110321191903019</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -453,14 +444,8 @@
       <c r="B4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>6.130685532900904</v>
-      </c>
       <c r="D4">
         <v>2011</v>
-      </c>
-      <c r="E4">
-        <v>8.171687307827558</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -470,14 +455,8 @@
       <c r="B5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>8.703939237318981</v>
-      </c>
       <c r="D5">
         <v>2012</v>
-      </c>
-      <c r="E5">
-        <v>7.024938805895942</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -487,14 +466,8 @@
       <c r="B6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>2.688274587589135</v>
-      </c>
       <c r="D6">
         <v>2013</v>
-      </c>
-      <c r="E6">
-        <v>2.539548427141214</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +478,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.9946838291217786</v>
+        <v>0.4454453461194552</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>4.911355197600598</v>
+        <v>2.887668087172179</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +495,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>5.562499360312567</v>
+        <v>5.461771395837989</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>5.487340994505363</v>
+        <v>3.667647087004666</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +512,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>4.195080504802551</v>
+        <v>3.857137494611718</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>5.494748269944894</v>
+        <v>3.60208822706134</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +529,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>4.230623896992025</v>
+        <v>4.325618632128836</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>4.590028883910469</v>
+        <v>3.998755562728684</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +546,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>4.933871867981643</v>
+        <v>4.439146757103352</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>4.971431636697599</v>
+        <v>3.861679870292711</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +563,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>5.36938819563848</v>
+        <v>5.723509166364238</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>4.005038151193219</v>
+        <v>4.058053416301188</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +580,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>3.394578533164361</v>
+        <v>4.674926984813466</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>3.0293693073427</v>
+        <v>4.726969153629335</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +597,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-9.121145393096574</v>
+        <v>0.4167846160013644</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>8.901016312581778</v>
+        <v>1.125570778878981</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +614,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.9984771834683381</v>
+        <v>-1.488064879190421</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>6.640559540111668</v>
+        <v>3.63609986063671</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +631,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.969423516885649</v>
+        <v>1.712986619197032</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>5.449319663556662</v>
+        <v>2.431967849366434</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +648,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.6099727569748192</v>
+        <v>-0.5717743519535134</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>3.741282892331332</v>
+        <v>1.732880403074311</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +665,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.00883970647999055</v>
+        <v>-0.2867681914691111</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>3.914957842639755</v>
+        <v>2.013081730696564</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +682,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.2249761948293294</v>
+        <v>0.4432539413513181</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.1744462289204107</v>
+        <v>1.364481450639365</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_summer.xlsx
@@ -444,8 +444,14 @@
       <c r="B4">
         <v>2010</v>
       </c>
+      <c r="C4">
+        <v>4.317520552235576</v>
+      </c>
       <c r="D4">
         <v>2011</v>
+      </c>
+      <c r="E4">
+        <v>3.856664261949816</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -455,8 +461,14 @@
       <c r="B5">
         <v>2011</v>
       </c>
+      <c r="C5">
+        <v>10.48563750975209</v>
+      </c>
       <c r="D5">
         <v>2012</v>
+      </c>
+      <c r="E5">
+        <v>5.658864198748459</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -466,8 +478,14 @@
       <c r="B6">
         <v>2012</v>
       </c>
+      <c r="C6">
+        <v>4.65880603412161</v>
+      </c>
       <c r="D6">
         <v>2013</v>
+      </c>
+      <c r="E6">
+        <v>5.409232631930561</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -478,13 +496,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.4454453461194552</v>
+        <v>-0.8693696108860949</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>2.887668087172179</v>
+        <v>2.311254283099773</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -495,13 +513,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>5.461771395837989</v>
+        <v>4.057580120451165</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>3.667647087004666</v>
+        <v>3.242274909585041</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -512,13 +530,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>3.857137494611718</v>
+        <v>3.942841799197594</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>3.60208822706134</v>
+        <v>3.826653192455631</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -529,13 +547,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>4.325618632128836</v>
+        <v>2.435545128806416</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>3.998755562728684</v>
+        <v>4.047617271894799</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -546,13 +564,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>4.439146757103352</v>
+        <v>4.218672000695523</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>3.861679870292711</v>
+        <v>4.02808863798465</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -563,13 +581,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>5.723509166364238</v>
+        <v>4.174017263680696</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>4.058053416301188</v>
+        <v>2.074691389445271</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -580,13 +598,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>4.674926984813466</v>
+        <v>1.699348375745302</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>4.726969153629335</v>
+        <v>3.362240252406901</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -597,13 +615,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>0.4167846160013644</v>
+        <v>-2.856524424985296</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>1.125570778878981</v>
+        <v>0.1239622353166103</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -614,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-1.488064879190421</v>
+        <v>6.240787792289715</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>3.63609986063671</v>
+        <v>4.112367048326182</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -631,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.712986619197032</v>
+        <v>3.815916106066686</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>2.431967849366434</v>
+        <v>2.762663830671319</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -648,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.5717743519535134</v>
+        <v>0.757583445265464</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>1.732880403074311</v>
+        <v>2.564429185896056</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -665,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.2867681914691111</v>
+        <v>-0.152046383567539</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>2.013081730696564</v>
+        <v>2.659925441240518</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -682,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.4432539413513181</v>
+        <v>-1.93082584212636</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>1.364481450639365</v>
+        <v>2.2373336846083</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_summer.xlsx
@@ -632,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>6.240787792289715</v>
+        <v>5.869785355670865</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>4.112367048326182</v>
+        <v>3.605326579534629</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>3.815916106066686</v>
+        <v>3.914343708692569</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>2.762663830671319</v>
+        <v>3.13932694169754</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.757583445265464</v>
+        <v>1.294257050558856</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>2.564429185896056</v>
+        <v>2.917701676058626</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.152046383567539</v>
+        <v>-0.5115946691845119</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>2.659925441240518</v>
+        <v>2.469032409329386</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-1.93082584212636</v>
+        <v>-1.623731782294058</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>2.2373336846083</v>
+        <v>2.46173380616781</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_summer.xlsx
@@ -462,13 +462,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>10.48563750975209</v>
+        <v>10.48563750975204</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>5.658864198748459</v>
+        <v>5.658864198748481</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -479,13 +479,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>4.65880603412161</v>
+        <v>4.658806034121588</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>5.409232631930561</v>
+        <v>5.409232631930538</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -502,7 +502,7 @@
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>2.311254283099773</v>
+        <v>2.311254283099795</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -513,7 +513,7 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>4.057580120451165</v>
+        <v>4.057580120451143</v>
       </c>
       <c r="D8">
         <v>2015</v>
@@ -530,13 +530,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>3.942841799197594</v>
+        <v>3.942841799197616</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>3.826653192455631</v>
+        <v>3.826653192455653</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -547,13 +547,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.435545128806416</v>
+        <v>2.435545128806438</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>4.047617271894799</v>
+        <v>4.047617271894777</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -598,13 +598,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.699348375745302</v>
+        <v>1.69934837574528</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>3.362240252406901</v>
+        <v>3.362240252406923</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -672,7 +672,7 @@
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>2.917701676058626</v>
+        <v>2.917701676058604</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -689,7 +689,7 @@
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>2.469032409329386</v>
+        <v>2.469032409329408</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-1.623731782294058</v>
+        <v>-1.623731782294036</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>2.46173380616781</v>
+        <v>2.461733806167832</v>
       </c>
     </row>
   </sheetData>
